--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -414,28 +414,28 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9993</v>
+        <v>10055</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
       <c r="C3">
-        <v>114.49</v>
+        <v>110.77</v>
       </c>
       <c r="D3">
-        <v>114.57</v>
+        <v>110.16</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="G3" s="1">
-        <v>42606.601018518515</v>
+        <v>42608.639097222222</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10146.5</v>
+      </c>
+      <c r="B4">
+        <v>10055</v>
+      </c>
+      <c r="C4">
+        <v>107.96</v>
+      </c>
+      <c r="D4">
+        <v>108.94</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.91</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42609.505590277775</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -464,6 +464,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10069.39</v>
+      </c>
+      <c r="B5">
+        <v>10146.5</v>
+      </c>
+      <c r="C5">
+        <v>109.08</v>
+      </c>
+      <c r="D5">
+        <v>108.25</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>-0.76</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42612.674537037034</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,6 +490,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10100.61</v>
+      </c>
+      <c r="B6">
+        <v>10069.39</v>
+      </c>
+      <c r="C6">
+        <v>107.89</v>
+      </c>
+      <c r="D6">
+        <v>108.22</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42613.766597222224</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10104.65</v>
+      </c>
+      <c r="B7">
+        <v>10100.61</v>
+      </c>
+      <c r="C7">
+        <v>107.17</v>
+      </c>
+      <c r="D7">
+        <v>107.21</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42614.673842592594</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10102.629999999999</v>
+      </c>
+      <c r="B8">
+        <v>10104.65</v>
+      </c>
+      <c r="C8">
+        <v>107.04</v>
+      </c>
+      <c r="D8">
+        <v>107.02</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-0.02</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42615.752916666665</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.678611111114</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9980.5</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>108.67</v>
+      </c>
+      <c r="F4">
+        <v>108.25</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.39</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,6 +477,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.666898148149</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10008.5</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <v>108.42</v>
+      </c>
+      <c r="F5">
+        <v>108.6</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.17</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -421,28 +421,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42640.555069444446</v>
+        <v>42642.489317129628</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9955.5</v>
+        <v>9977</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>107.01</v>
       </c>
       <c r="F3">
-        <v>108.03</v>
+        <v>106.52</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.89</v>
+        <v>-0.46</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +448,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42643.487222222226</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9966.0300000000007</v>
+      </c>
+      <c r="D4">
+        <v>9977</v>
+      </c>
+      <c r="E4">
+        <v>105.83</v>
+      </c>
+      <c r="F4">
+        <v>105.6</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.22</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,20 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -474,6 +475,35 @@
         <v>-0.22</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42644.480486111112</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>9949.09</v>
+      </c>
+      <c r="D5">
+        <v>9966.0300000000007</v>
+      </c>
+      <c r="E5">
+        <v>103.42</v>
+      </c>
+      <c r="F5">
+        <v>103.07</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-0.34</v>
+      </c>
+      <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,7 +379,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
@@ -507,6 +507,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42650.371504629627</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>9906.81</v>
+      </c>
+      <c r="D6">
+        <v>9949.09</v>
+      </c>
+      <c r="E6">
+        <v>104.839996</v>
+      </c>
+      <c r="F6">
+        <v>103.95</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-0.85</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,21 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -536,6 +536,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42651.516840277778</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9869.16</v>
+      </c>
+      <c r="D7">
+        <v>9906.81</v>
+      </c>
+      <c r="E7">
+        <v>104.459999</v>
+      </c>
+      <c r="F7">
+        <v>103.67</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-0.76</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Trades/CELG/CELGNamedTrade20.xlsx
@@ -369,21 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -565,6 +565,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42654.746481481481</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>9883.9599999999991</v>
+      </c>
+      <c r="D8">
+        <v>9869.16</v>
+      </c>
+      <c r="E8">
+        <v>104.43</v>
+      </c>
+      <c r="F8">
+        <v>104.74</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
